--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>62.33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>85.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>86.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.86</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.74</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.29</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>87.09</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>47.27</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.79</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>94.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -572,46 +572,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>64.52</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38.71</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>87.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>77.42</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25.81</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -624,46 +624,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>45.81</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>75.13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.07</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>59.16</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.11</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>29.06</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.68</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>85.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="C5" t="n">
-        <v>13.33</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>46.67</v>
+        <v>55.16</v>
       </c>
       <c r="G5" t="n">
-        <v>93.33</v>
+        <v>96.42</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>55.11</v>
       </c>
       <c r="J5" t="n">
-        <v>13.33</v>
+        <v>45.13</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>22.83</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>60.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>18.11</v>
       </c>
       <c r="O5" t="n">
-        <v>6.67</v>
+        <v>56.24</v>
       </c>
       <c r="P5" t="n">
-        <v>80</v>
+        <v>97.33</v>
       </c>
     </row>
   </sheetData>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.72</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.41</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>95.98</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>56.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>48.59</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.92</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>64.91</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>57.44</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.56</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>98.41</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52.81</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>29.55</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.74</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.47</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>38.84</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>93.81</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>97.14</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>88.56999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.74</v>
+        <v>3.57</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>10.34</v>
+        <v>3.57</v>
       </c>
       <c r="E5" t="n">
-        <v>86.59999999999999</v>
+        <v>92.86</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>96.42</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>89.95999999999999</v>
+        <v>92.86</v>
       </c>
       <c r="I5" t="n">
-        <v>55.11</v>
+        <v>21.43</v>
       </c>
       <c r="J5" t="n">
-        <v>45.13</v>
+        <v>14.29</v>
       </c>
       <c r="K5" t="n">
-        <v>22.83</v>
+        <v>21.43</v>
       </c>
       <c r="L5" t="n">
-        <v>11.87</v>
+        <v>7.14</v>
       </c>
       <c r="M5" t="n">
-        <v>60.02</v>
+        <v>21.43</v>
       </c>
       <c r="N5" t="n">
-        <v>18.11</v>
+        <v>7.14</v>
       </c>
       <c r="O5" t="n">
-        <v>56.24</v>
+        <v>10.71</v>
       </c>
       <c r="P5" t="n">
-        <v>97.33</v>
+        <v>67.86</v>
       </c>
     </row>
   </sheetData>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -520,7 +520,7 @@
         <v>4.11</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43.63</v>
       </c>
       <c r="D2" t="n">
         <v>11.72</v>
@@ -572,7 +572,7 @@
         <v>2.06</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>28.71</v>
       </c>
       <c r="D3" t="n">
         <v>4.6</v>
@@ -624,7 +624,7 @@
         <v>5.71</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>5.71</v>
       </c>
       <c r="D4" t="n">
         <v>5.71</v>
@@ -676,7 +676,7 @@
         <v>3.57</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>7.14</v>
       </c>
       <c r="D5" t="n">
         <v>3.57</v>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.11</v>
+        <v>0.36</v>
       </c>
       <c r="C2" t="n">
-        <v>43.63</v>
+        <v>43.58</v>
       </c>
       <c r="D2" t="n">
-        <v>11.72</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>85.41</v>
+        <v>84.97</v>
       </c>
       <c r="F2" t="n">
-        <v>55.95</v>
+        <v>55.89</v>
       </c>
       <c r="G2" t="n">
-        <v>95.98</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>88.95999999999999</v>
+        <v>89.02</v>
       </c>
       <c r="I2" t="n">
-        <v>56.14</v>
+        <v>55.56</v>
       </c>
       <c r="J2" t="n">
-        <v>48.59</v>
+        <v>46.47</v>
       </c>
       <c r="K2" t="n">
-        <v>21.62</v>
+        <v>19.76</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92</v>
+        <v>9.26</v>
       </c>
       <c r="M2" t="n">
-        <v>64.91</v>
+        <v>63.8</v>
       </c>
       <c r="N2" t="n">
-        <v>18.63</v>
+        <v>16.72</v>
       </c>
       <c r="O2" t="n">
-        <v>57.44</v>
+        <v>56.57</v>
       </c>
       <c r="P2" t="n">
-        <v>98.37</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.71</v>
+        <v>27.33</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>2.63</v>
       </c>
       <c r="E3" t="n">
-        <v>91.18000000000001</v>
+        <v>90.86</v>
       </c>
       <c r="F3" t="n">
-        <v>50.56</v>
+        <v>49.42</v>
       </c>
       <c r="G3" t="n">
-        <v>98.41</v>
+        <v>98.83</v>
       </c>
       <c r="H3" t="n">
-        <v>94</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>52.81</v>
+        <v>53.79</v>
       </c>
       <c r="J3" t="n">
-        <v>29.55</v>
+        <v>27.14</v>
       </c>
       <c r="K3" t="n">
-        <v>26.74</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>6.47</v>
+        <v>4.47</v>
       </c>
       <c r="M3" t="n">
-        <v>38.84</v>
+        <v>36.38</v>
       </c>
       <c r="N3" t="n">
-        <v>14.26</v>
+        <v>12.06</v>
       </c>
       <c r="O3" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="P3" t="n">
-        <v>93.81</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.71</v>
+        <v>5.88</v>
       </c>
       <c r="D4" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>94.12</v>
       </c>
       <c r="F4" t="n">
-        <v>94.29000000000001</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>97.14</v>
+        <v>97.06</v>
       </c>
       <c r="I4" t="n">
-        <v>14.29</v>
+        <v>20.59</v>
       </c>
       <c r="J4" t="n">
-        <v>82.86</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>65.70999999999999</v>
+        <v>52.94</v>
       </c>
       <c r="L4" t="n">
-        <v>40</v>
+        <v>32.35</v>
       </c>
       <c r="M4" t="n">
-        <v>82.86</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>74.29000000000001</v>
+        <v>58.82</v>
       </c>
       <c r="O4" t="n">
-        <v>28.57</v>
+        <v>20.59</v>
       </c>
       <c r="P4" t="n">
-        <v>88.56999999999999</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -672,51 +672,21 @@
           <t>Não se aplica</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92.86</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>89.29000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>92.86</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="M5" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="P5" t="n">
-        <v>67.86</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -672,21 +672,51 @@
           <t>Não se aplica</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
